--- a/MavenProject1/data/TC002 - Copy.xlsx
+++ b/MavenProject1/data/TC002 - Copy.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
